--- a/estructurasDatosParraVillegasOñatiba.xlsx.xlsx
+++ b/estructurasDatosParraVillegasOñatiba.xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="150">
   <si>
     <t xml:space="preserve">REPRESENTACION   DE  LOS  ARREGLOS  DEL  ARCHIVO    programaParraVillegasOñativa.php </t>
   </si>
@@ -442,6 +442,51 @@
   </si>
   <si>
     <t>de la funcion escribirTEclado, tiene como arreglo $ordenTeclado, que es de tipo indexado</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>$resumenJugador</t>
+  </si>
+  <si>
+    <t>➝</t>
+  </si>
+  <si>
+    <t>➝"</t>
+  </si>
+  <si>
+    <t>"nroTotalPartidas"</t>
+  </si>
+  <si>
+    <t>"totalPuntaje"</t>
+  </si>
+  <si>
+    <t>"victorias"</t>
+  </si>
+  <si>
+    <t>"porcentajeVictorias"</t>
+  </si>
+  <si>
+    <t>"intento1"</t>
+  </si>
+  <si>
+    <t>"intento2"</t>
+  </si>
+  <si>
+    <t>"intento3"</t>
+  </si>
+  <si>
+    <t>"intento4"</t>
+  </si>
+  <si>
+    <t>"intento5"</t>
+  </si>
+  <si>
+    <t>"intento6"</t>
+  </si>
+  <si>
+    <t>el arreglo $resumenJugador es de tipo asociativo</t>
   </si>
 </sst>
 </file>
@@ -617,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -635,12 +680,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -670,14 +709,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -685,10 +728,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,59 +1077,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
     </row>
     <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="23" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1134,13 +1180,13 @@
       <c r="Q3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1189,10 +1235,10 @@
       <c r="Q4" s="4">
         <v>16</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -1246,10 +1292,10 @@
       <c r="Q5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -1303,10 +1349,10 @@
       <c r="Q6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1360,10 +1406,10 @@
       <c r="Q7" s="4">
         <v>4</v>
       </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -1417,84 +1463,84 @@
       <c r="Q8" s="4">
         <v>11</v>
       </c>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1559,7 +1605,7 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="2">
         <v>0</v>
       </c>
@@ -1622,161 +1668,161 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="P14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="U14" s="7" t="s">
+      <c r="U14" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -1815,63 +1861,63 @@
       <c r="L19" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
     </row>
     <row r="20" spans="1:21" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="6" t="s">
         <v>60</v>
       </c>
@@ -1905,63 +1951,63 @@
       <c r="L21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
     </row>
     <row r="22" spans="1:21" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="6" t="s">
         <v>71</v>
       </c>
@@ -1974,565 +2020,518 @@
       <c r="E23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
     </row>
     <row r="24" spans="1:21" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="13" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="G33" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="H33" s="18" t="s">
+      <c r="H33" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="J33" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="K33" s="18" t="s">
+      <c r="K33" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="18" t="s">
+      <c r="L33" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="M33" s="18" t="s">
+      <c r="M33" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="7">
+      <c r="A35" s="7"/>
+      <c r="B35" s="23">
         <v>1</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="23">
         <v>1</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="23">
         <v>1</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="23">
         <v>1</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="23">
         <v>1</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="23">
         <v>2</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="23">
         <v>2</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="23">
         <v>2</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="23">
         <v>2</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="23">
         <v>2</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="23">
         <v>2</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="23">
         <v>2</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="7"/>
+      <c r="B37" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H37" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="18" t="s">
+      <c r="I37" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="J37" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="K37" s="18" t="s">
+      <c r="K37" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="L37" s="18" t="s">
+      <c r="L37" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="M37" s="18" t="s">
+      <c r="M37" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="N37" s="18" t="s">
+      <c r="N37" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="7">
+      <c r="B39" s="23">
         <v>2</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="23">
         <v>2</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="23">
         <v>3</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="23">
         <v>3</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="23">
         <v>3</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="23">
         <v>3</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="23">
         <v>3</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="23">
         <v>3</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="23">
         <v>3</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="23">
         <v>3</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="23">
         <v>3</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="23">
         <v>3</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="24"/>
+      <c r="B42" s="17"/>
     </row>
     <row r="43" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="23"/>
+      <c r="B43" s="16"/>
     </row>
     <row r="44" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="23" t="s">
+      <c r="A44" s="7"/>
+      <c r="B44" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H44" s="20" t="s">
+      <c r="H44" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="I44" s="20" t="s">
+      <c r="I44" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J44" s="20" t="s">
+      <c r="J44" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="K44" s="20" t="s">
+      <c r="K44" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="L44" s="20" t="s">
+      <c r="L44" s="18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="23">
+      <c r="B45" s="16">
         <v>0</v>
       </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="19" t="s">
         <v>131</v>
       </c>
       <c r="C46" s="21">
@@ -2567,8 +2566,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="20"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -2581,187 +2580,478 @@
       <c r="L47" s="22"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="G48" s="18" t="s">
+      <c r="G48" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="H48" s="18" t="s">
+      <c r="H48" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="I48" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="J48" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="K48" s="18" t="s">
+      <c r="K48" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="L48" s="18" t="s">
+      <c r="L48" s="19" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
     </row>
     <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="E50" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="H50" s="18" t="s">
+      <c r="H50" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="I50" s="18" t="s">
+      <c r="I50" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="J50" s="18" t="s">
+      <c r="J50" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="K50" s="18" t="s">
+      <c r="K50" s="19" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I52" s="18" t="s">
+      <c r="I52" s="19" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B58" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="7"/>
+      <c r="B60" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D66" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="24"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="24"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="24"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="24"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D82" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="24"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D84" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="24"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
+  <mergeCells count="170">
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="P14:P15"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="N37:N38"/>
     <mergeCell ref="N35:N36"/>
@@ -2786,67 +3076,56 @@
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
     <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M35:M36"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="T14:T15"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
